--- a/pdfContent.xlsx
+++ b/pdfContent.xlsx
@@ -14,9 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <x:si>
-    <x:t>Full name</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <x:si>
+    <x:t>Timestamp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full name (as per NRIC)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Age Group</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Email address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contact Number</x:t>
   </x:si>
   <x:si>
     <x:t>Registration No</x:t>
@@ -28,31 +43,85 @@
     <x:t>Adam Tan</x:t>
   </x:si>
   <x:si>
+    <x:t>Male</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>echen009@e.ntu.edu</x:t>
+  </x:si>
+  <x:si>
     <x:t>Successfully registered! Here is your registration number to the event.</x:t>
   </x:si>
   <x:si>
+    <x:t>Dr. John Williams</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test@abc.com.sg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Allen Wood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rebecca Alvarez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Caden Chen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31-40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mark Sanchez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Barbara Blevins</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Natalie Prince</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koh Kong Ming</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41-50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Anthony Harris</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lisa Chan Ming Ming</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Female</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cody Robinson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Steven Houston</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jaime Green</x:t>
+  </x:si>
+  <x:si>
     <x:t>Becky Chen</x:t>
   </x:si>
   <x:si>
-    <x:t>Lisa Chan Ming Ming</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Caden Chen</x:t>
+    <x:t>Jean Williams</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kayla Flores</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amy Navarro</x:t>
   </x:si>
   <x:si>
     <x:t>Danielle Sim</x:t>
   </x:si>
   <x:si>
-    <x:t>Koh Kong Ming</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mark Sanchez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jean Williams</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cody Robinson</x:t>
+    <x:t>Tiffany Martinez</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -98,13 +167,20 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -403,13 +479,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C10"/>
+  <x:dimension ref="A1:H21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -419,104 +495,540 @@
       <x:c r="C1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3">
-      <x:c r="A2" s="0" t="s">
+      <x:c r="D1" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="n">
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="A2" s="1">
+        <x:v>45417.8346064815</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="n">
+        <x:v>14583376</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="n">
         <x:v>1001</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3">
-      <x:c r="A3" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="n">
+      <x:c r="H2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="A3" s="1">
+        <x:v>45418.5026388889</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="n">
+        <x:v>30338111</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="n">
         <x:v>1002</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
-      <x:c r="A4" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="n">
+      <x:c r="H3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="A4" s="1">
+        <x:v>45419.7410416667</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="n">
+        <x:v>30990800</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="n">
         <x:v>1003</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3">
-      <x:c r="A5" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="n">
+      <x:c r="H4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8">
+      <x:c r="A5" s="1">
+        <x:v>45417.7739467593</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="n">
+        <x:v>81218466</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="n">
         <x:v>1004</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3">
-      <x:c r="A6" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="n">
+      <x:c r="H5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8">
+      <x:c r="A6" s="1">
+        <x:v>45418.5026388889</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="n">
+        <x:v>22789443</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="n">
         <x:v>1005</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3">
-      <x:c r="A7" s="0" t="s">
+      <x:c r="H6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8">
+      <x:c r="A7" s="1">
+        <x:v>45416.0048842593</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="n">
+      <x:c r="D7" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="n">
+        <x:v>26663693</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="n">
         <x:v>1006</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3">
-      <x:c r="A8" s="0" t="s">
+      <x:c r="H7" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8">
+      <x:c r="A8" s="1">
+        <x:v>45417.9609143519</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="n">
+        <x:v>42910376</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="n">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:8">
+      <x:c r="A9" s="1">
+        <x:v>45417.6209143518</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="n">
+        <x:v>45345003</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="n">
+        <x:v>1008</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8">
+      <x:c r="A10" s="1">
+        <x:v>45418.5249652778</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="n">
+        <x:v>24770454</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="n">
+        <x:v>1009</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8">
+      <x:c r="A11" s="1">
+        <x:v>45419.872337963</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="n">
+        <x:v>39467735</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="n">
+        <x:v>1010</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:8">
+      <x:c r="A12" s="1">
+        <x:v>45416.6572222222</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="n">
-        <x:v>1007</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:3">
-      <x:c r="A9" s="0" t="s">
+      <x:c r="E12" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="n">
-        <x:v>1008</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:3">
-      <x:c r="A10" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="n">
-        <x:v>1009</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>4</x:v>
+      <x:c r="F12" s="0" t="n">
+        <x:v>19760685</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="n">
+        <x:v>1011</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:8">
+      <x:c r="A13" s="1">
+        <x:v>45418.0745138889</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="n">
+        <x:v>28557906</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="n">
+        <x:v>1012</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:8">
+      <x:c r="A14" s="1">
+        <x:v>45417.5652199074</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="n">
+        <x:v>28688027</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="n">
+        <x:v>1013</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:8">
+      <x:c r="A15" s="1">
+        <x:v>45416.6572222222</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="n">
+        <x:v>30279019</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="n">
+        <x:v>1014</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:8">
+      <x:c r="A16" s="1">
+        <x:v>45418.1527083333</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="n">
+        <x:v>15480124</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="n">
+        <x:v>1015</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:8">
+      <x:c r="A17" s="1">
+        <x:v>45417.2744675926</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="n">
+        <x:v>27498330</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="n">
+        <x:v>1016</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:8">
+      <x:c r="A18" s="1">
+        <x:v>45418.8998726852</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="n">
+        <x:v>42487189</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="n">
+        <x:v>1017</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:8">
+      <x:c r="A19" s="1">
+        <x:v>45418.4218171296</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="n">
+        <x:v>53416701</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="n">
+        <x:v>1018</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:8">
+      <x:c r="A20" s="1">
+        <x:v>45419.7410416667</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="n">
+        <x:v>24219363</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="n">
+        <x:v>1019</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:8">
+      <x:c r="A21" s="1">
+        <x:v>45418.5249652778</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="n">
+        <x:v>31310453</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="n">
+        <x:v>1020</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/pdfContent.xlsx
+++ b/pdfContent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <x:si>
     <x:t>Timestamp</x:t>
   </x:si>
@@ -64,9 +64,6 @@
     <x:t>Allen Wood</x:t>
   </x:si>
   <x:si>
-    <x:t>Rebecca Alvarez</x:t>
-  </x:si>
-  <x:si>
     <x:t>Caden Chen</x:t>
   </x:si>
   <x:si>
@@ -79,9 +76,6 @@
     <x:t>Barbara Blevins</x:t>
   </x:si>
   <x:si>
-    <x:t>Natalie Prince</x:t>
-  </x:si>
-  <x:si>
     <x:t>Koh Kong Ming</x:t>
   </x:si>
   <x:si>
@@ -103,9 +97,6 @@
     <x:t>Steven Houston</x:t>
   </x:si>
   <x:si>
-    <x:t>Jaime Green</x:t>
-  </x:si>
-  <x:si>
     <x:t>Becky Chen</x:t>
   </x:si>
   <x:si>
@@ -115,13 +106,13 @@
     <x:t>Kayla Flores</x:t>
   </x:si>
   <x:si>
+    <x:t>Danielle Sim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tiffany Martinez</x:t>
+  </x:si>
+  <x:si>
     <x:t>Amy Navarro</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Danielle Sim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tiffany Martinez</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -591,7 +582,7 @@
     </x:row>
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="1">
-        <x:v>45417.7739467593</x:v>
+        <x:v>45418.5026388889</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>16</x:v>
@@ -600,13 +591,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>81218466</x:v>
+        <x:v>22789443</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>1004</x:v>
@@ -617,22 +608,22 @@
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="1">
-        <x:v>45418.5026388889</x:v>
+        <x:v>45416.0048842593</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>22789443</x:v>
+        <x:v>26663693</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>1005</x:v>
@@ -643,7 +634,7 @@
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="1">
-        <x:v>45416.0048842593</x:v>
+        <x:v>45417.9609143519</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>19</x:v>
@@ -652,13 +643,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>26663693</x:v>
+        <x:v>42910376</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>1006</x:v>
@@ -669,7 +660,7 @@
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="1">
-        <x:v>45417.9609143519</x:v>
+        <x:v>45418.5249652778</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>20</x:v>
@@ -678,13 +669,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>42910376</x:v>
+        <x:v>24770454</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>1007</x:v>
@@ -695,22 +686,22 @@
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="1">
-        <x:v>45417.6209143518</x:v>
+        <x:v>45419.872337963</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>45345003</x:v>
+        <x:v>39467735</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>1008</x:v>
@@ -721,22 +712,22 @@
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="1">
-        <x:v>45418.5249652778</x:v>
+        <x:v>45416.6572222222</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>24770454</x:v>
+        <x:v>19760685</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>1009</x:v>
@@ -747,22 +738,22 @@
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="1">
-        <x:v>45419.872337963</x:v>
+        <x:v>45418.0745138889</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>39467735</x:v>
+        <x:v>28557906</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
         <x:v>1010</x:v>
@@ -773,13 +764,13 @@
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="1">
-        <x:v>45416.6572222222</x:v>
+        <x:v>45417.5652199074</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>10</x:v>
@@ -788,7 +779,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>19760685</x:v>
+        <x:v>28688027</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>1011</x:v>
@@ -799,22 +790,22 @@
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="1">
-        <x:v>45418.0745138889</x:v>
+        <x:v>45418.1527083333</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>28557906</x:v>
+        <x:v>15480124</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
         <x:v>1012</x:v>
@@ -825,22 +816,22 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="1">
-        <x:v>45417.5652199074</x:v>
+        <x:v>45417.2744675926</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>28688027</x:v>
+        <x:v>27498330</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>1013</x:v>
@@ -851,22 +842,22 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="1">
-        <x:v>45416.6572222222</x:v>
+        <x:v>45418.8998726852</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>30279019</x:v>
+        <x:v>42487189</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>1014</x:v>
@@ -877,22 +868,22 @@
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="1">
-        <x:v>45418.1527083333</x:v>
+        <x:v>45419.7410416667</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>15480124</x:v>
+        <x:v>24219363</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>1015</x:v>
@@ -903,22 +894,22 @@
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="1">
-        <x:v>45417.2744675926</x:v>
+        <x:v>45418.5249652778</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>27498330</x:v>
+        <x:v>31310453</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>1016</x:v>
@@ -932,13 +923,13 @@
         <x:v>45418.8998726852</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>14</x:v>
@@ -958,13 +949,13 @@
         <x:v>45418.4218171296</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>14</x:v>
@@ -984,13 +975,13 @@
         <x:v>45419.7410416667</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
         <x:v>11</x:v>
@@ -1010,13 +1001,13 @@
         <x:v>45418.5249652778</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>14</x:v>

--- a/pdfContent.xlsx
+++ b/pdfContent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <x:si>
     <x:t>Timestamp</x:t>
   </x:si>
@@ -40,7 +40,7 @@
     <x:t>Text</x:t>
   </x:si>
   <x:si>
-    <x:t>Adam Tan</x:t>
+    <x:t>Austin Owen</x:t>
   </x:si>
   <x:si>
     <x:t>Male</x:t>
@@ -49,70 +49,85 @@
     <x:t>21-30</x:t>
   </x:si>
   <x:si>
+    <x:t>eri001@e.ntu.edu.sg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successfully registered! Here is your registration number to the event.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bruce White</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test@abc.com.sg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Steven Moody</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dylan Newton</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31-40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>echen009@e.ntu.edu.sg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Melody Walls</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Caitlin Ramsey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Megan Mendoza</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41-50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Krista Ramos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gregory Cunningham</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Female</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Elizabeth Duarte</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jeffery Moore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nathaniel Jones</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ruth Bowers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jessica Campbell</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Timothy Butler</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jason Berg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kayla Flores</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amy Navarro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Danielle Sim</x:t>
+  </x:si>
+  <x:si>
     <x:t>echen009@e.ntu.edu</x:t>
   </x:si>
   <x:si>
-    <x:t>Successfully registered! Here is your registration number to the event.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dr. John Williams</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test@abc.com.sg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Allen Wood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Caden Chen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31-40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mark Sanchez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Barbara Blevins</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koh Kong Ming</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41-50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Anthony Harris</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lisa Chan Ming Ming</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Female</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cody Robinson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Steven Houston</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Becky Chen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jean Williams</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kayla Flores</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Danielle Sim</x:t>
-  </x:si>
-  <x:si>
     <x:t>Tiffany Martinez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amy Navarro</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -504,7 +519,7 @@
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="A2" s="1">
-        <x:v>45417.8346064815</x:v>
+        <x:v>45417.8340277778</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>8</x:v>
@@ -519,7 +534,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>14583376</x:v>
+        <x:v>49144058</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>1001</x:v>
@@ -530,7 +545,7 @@
     </x:row>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="1">
-        <x:v>45418.5026388889</x:v>
+        <x:v>45417.8388888889</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>13</x:v>
@@ -545,7 +560,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>30338111</x:v>
+        <x:v>30059239</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>1002</x:v>
@@ -556,7 +571,7 @@
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="1">
-        <x:v>45419.7410416667</x:v>
+        <x:v>45417.8430555556</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>15</x:v>
@@ -571,7 +586,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>30990800</x:v>
+        <x:v>44283458</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>1003</x:v>
@@ -582,7 +597,7 @@
     </x:row>
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="1">
-        <x:v>45418.5026388889</x:v>
+        <x:v>45417.8368055556</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>16</x:v>
@@ -594,10 +609,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>22789443</x:v>
+        <x:v>61276100</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>1004</x:v>
@@ -608,10 +623,10 @@
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="1">
-        <x:v>45416.0048842593</x:v>
+        <x:v>45417.8416666667</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>9</x:v>
@@ -620,10 +635,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>26663693</x:v>
+        <x:v>79466164</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>1005</x:v>
@@ -634,10 +649,10 @@
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="1">
-        <x:v>45417.9609143519</x:v>
+        <x:v>45417.8486111111</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
         <x:v>9</x:v>
@@ -649,7 +664,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>42910376</x:v>
+        <x:v>64709089</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>1006</x:v>
@@ -660,22 +675,22 @@
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="1">
-        <x:v>45418.5249652778</x:v>
+        <x:v>45417.8472222222</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>24770454</x:v>
+        <x:v>40138873</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>1007</x:v>
@@ -686,22 +701,22 @@
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="1">
-        <x:v>45419.872337963</x:v>
+        <x:v>45417.8833333333</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>39467735</x:v>
+        <x:v>95133747</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>1008</x:v>
@@ -712,22 +727,22 @@
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="1">
-        <x:v>45416.6572222222</x:v>
+        <x:v>45417.8451388889</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>19760685</x:v>
+        <x:v>25117751</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>1009</x:v>
@@ -738,22 +753,22 @@
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="1">
-        <x:v>45418.0745138889</x:v>
+        <x:v>45417.85</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>28557906</x:v>
+        <x:v>76751186</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
         <x:v>1010</x:v>
@@ -764,22 +779,22 @@
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="1">
-        <x:v>45417.5652199074</x:v>
+        <x:v>45417.8638888889</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>28688027</x:v>
+        <x:v>29607507</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>1011</x:v>
@@ -790,22 +805,22 @@
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="1">
-        <x:v>45418.1527083333</x:v>
+        <x:v>45417.8381944444</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>15480124</x:v>
+        <x:v>85106913</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
         <x:v>1012</x:v>
@@ -816,22 +831,22 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="1">
-        <x:v>45417.2744675926</x:v>
+        <x:v>45417.8708333333</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>27498330</x:v>
+        <x:v>12501967</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>1013</x:v>
@@ -842,13 +857,13 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="1">
-        <x:v>45418.8998726852</x:v>
+        <x:v>45417.8888888889</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
         <x:v>17</x:v>
@@ -857,7 +872,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>42487189</x:v>
+        <x:v>52274103</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>1014</x:v>
@@ -868,22 +883,22 @@
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="1">
-        <x:v>45419.7410416667</x:v>
+        <x:v>45417.8611111111</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>24219363</x:v>
+        <x:v>86467940</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>1015</x:v>
@@ -894,22 +909,22 @@
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="1">
-        <x:v>45418.5249652778</x:v>
+        <x:v>45417.86875</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>31310453</x:v>
+        <x:v>89442809</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>1016</x:v>
@@ -923,10 +938,10 @@
         <x:v>45418.8998726852</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
         <x:v>17</x:v>
@@ -949,10 +964,10 @@
         <x:v>45418.4218171296</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
         <x:v>17</x:v>
@@ -975,16 +990,16 @@
         <x:v>45419.7410416667</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
         <x:v>24219363</x:v>
@@ -1001,13 +1016,13 @@
         <x:v>45418.5249652778</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>14</x:v>

--- a/pdfContent.xlsx
+++ b/pdfContent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <x:si>
     <x:t>Timestamp</x:t>
   </x:si>
@@ -64,6 +64,27 @@
     <x:t>Steven Moody</x:t>
   </x:si>
   <x:si>
+    <x:t>Thomas Duffy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>James Wood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morgan Sellers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Austin Daniel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Christina Erickson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Guy Mills</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jeffery Barker</x:t>
+  </x:si>
+  <x:si>
     <x:t>Dylan Newton</x:t>
   </x:si>
   <x:si>
@@ -79,6 +100,27 @@
     <x:t>Caitlin Ramsey</x:t>
   </x:si>
   <x:si>
+    <x:t>Heather Baker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Joyce Harris</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Patricia May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mark Brown</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bryce Coleman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sara Sanders</x:t>
+  </x:si>
+  <x:si>
+    <x:t>David Preston</x:t>
+  </x:si>
+  <x:si>
     <x:t>Megan Mendoza</x:t>
   </x:si>
   <x:si>
@@ -88,6 +130,15 @@
     <x:t>Krista Ramos</x:t>
   </x:si>
   <x:si>
+    <x:t>Amanda Miller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Heidi Mosley</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Candice Decker PhD</x:t>
+  </x:si>
+  <x:si>
     <x:t>Gregory Cunningham</x:t>
   </x:si>
   <x:si>
@@ -100,6 +151,27 @@
     <x:t>Jeffery Moore</x:t>
   </x:si>
   <x:si>
+    <x:t>Bryan Smith</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Michele Mccall</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mary Parker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Austin Harrell</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mr. Michael Bailey III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rachel Anderson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Erik Oconnor</x:t>
+  </x:si>
+  <x:si>
     <x:t>Nathaniel Jones</x:t>
   </x:si>
   <x:si>
@@ -109,25 +181,40 @@
     <x:t>Jessica Campbell</x:t>
   </x:si>
   <x:si>
+    <x:t>Jeffrey Owens</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brittany Perkins</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gary Butler</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tyler Green</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Charles Chapman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eduardo Smith</x:t>
+  </x:si>
+  <x:si>
+    <x:t>George Hill</x:t>
+  </x:si>
+  <x:si>
     <x:t>Timothy Butler</x:t>
   </x:si>
   <x:si>
     <x:t>Jason Berg</x:t>
   </x:si>
   <x:si>
-    <x:t>Kayla Flores</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amy Navarro</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Danielle Sim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>echen009@e.ntu.edu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tiffany Martinez</x:t>
+    <x:t>Lance Cooley</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sydney Hendricks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Suzanne Price</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -597,7 +684,7 @@
     </x:row>
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="1">
-        <x:v>45417.8368055556</x:v>
+        <x:v>45417.8534722222</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>16</x:v>
@@ -606,13 +693,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>61276100</x:v>
+        <x:v>94155821</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>1004</x:v>
@@ -623,22 +710,22 @@
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="1">
-        <x:v>45417.8416666667</x:v>
+        <x:v>45417.85625</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>79466164</x:v>
+        <x:v>49884959</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>1005</x:v>
@@ -649,22 +736,22 @@
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="1">
-        <x:v>45417.8486111111</x:v>
+        <x:v>45417.8576388889</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>64709089</x:v>
+        <x:v>21565376</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>1006</x:v>
@@ -675,22 +762,22 @@
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="1">
-        <x:v>45417.8472222222</x:v>
+        <x:v>45417.8729166667</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>40138873</x:v>
+        <x:v>82943130</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>1007</x:v>
@@ -701,22 +788,22 @@
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="1">
-        <x:v>45417.8833333333</x:v>
+        <x:v>45417.8861111111</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>95133747</x:v>
+        <x:v>18674699</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>1008</x:v>
@@ -727,13 +814,13 @@
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="1">
-        <x:v>45417.8451388889</x:v>
+        <x:v>45417.8930555556</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>10</x:v>
@@ -742,7 +829,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>25117751</x:v>
+        <x:v>71364235</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>1009</x:v>
@@ -753,13 +840,13 @@
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="1">
-        <x:v>45417.85</x:v>
+        <x:v>45417.9180555556</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
         <x:v>10</x:v>
@@ -768,7 +855,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>76751186</x:v>
+        <x:v>58555238</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
         <x:v>1010</x:v>
@@ -779,22 +866,22 @@
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="1">
-        <x:v>45417.8638888889</x:v>
+        <x:v>45417.8368055556</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>29607507</x:v>
+        <x:v>61276100</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>1011</x:v>
@@ -805,22 +892,22 @@
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="1">
-        <x:v>45417.8381944444</x:v>
+        <x:v>45417.8416666667</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>85106913</x:v>
+        <x:v>79466164</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
         <x:v>1012</x:v>
@@ -831,22 +918,22 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="1">
-        <x:v>45417.8708333333</x:v>
+        <x:v>45417.8486111111</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>12501967</x:v>
+        <x:v>64709089</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>1013</x:v>
@@ -857,22 +944,22 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="1">
-        <x:v>45417.8888888889</x:v>
+        <x:v>45417.8652777778</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>52274103</x:v>
+        <x:v>53529073</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>1014</x:v>
@@ -883,22 +970,22 @@
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="1">
-        <x:v>45417.8611111111</x:v>
+        <x:v>45417.8673611111</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>86467940</x:v>
+        <x:v>76273159</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>1015</x:v>
@@ -909,22 +996,22 @@
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="1">
-        <x:v>45417.86875</x:v>
+        <x:v>45417.8736111111</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>89442809</x:v>
+        <x:v>73430518</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>1016</x:v>
@@ -935,22 +1022,22 @@
     </x:row>
     <x:row r="18" spans="1:8">
       <x:c r="A18" s="1">
-        <x:v>45418.8998726852</x:v>
+        <x:v>45417.8770833333</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>42487189</x:v>
+        <x:v>67853509</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>1017</x:v>
@@ -961,22 +1048,22 @@
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="1">
-        <x:v>45418.4218171296</x:v>
+        <x:v>45417.8770833333</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>53416701</x:v>
+        <x:v>41599890</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>1018</x:v>
@@ -987,22 +1074,22 @@
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="1">
-        <x:v>45419.7410416667</x:v>
+        <x:v>45417.8819444444</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>24219363</x:v>
+        <x:v>95775763</x:v>
       </x:c>
       <x:c r="G20" s="0" t="n">
         <x:v>1019</x:v>
@@ -1013,27 +1100,807 @@
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="1">
-        <x:v>45418.5249652778</x:v>
+        <x:v>45417.8951388889</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>31310453</x:v>
+        <x:v>96221071</x:v>
       </x:c>
       <x:c r="G21" s="0" t="n">
         <x:v>1020</x:v>
       </x:c>
       <x:c r="H21" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:8">
+      <x:c r="A22" s="1">
+        <x:v>45417.8472222222</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="n">
+        <x:v>40138873</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="n">
+        <x:v>1021</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:8">
+      <x:c r="A23" s="1">
+        <x:v>45417.8833333333</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="n">
+        <x:v>95133747</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="n">
+        <x:v>1022</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:8">
+      <x:c r="A24" s="1">
+        <x:v>45417.9034722222</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="n">
+        <x:v>91437948</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="n">
+        <x:v>1023</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:8">
+      <x:c r="A25" s="1">
+        <x:v>45417.9319444444</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="n">
+        <x:v>68716753</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="n">
+        <x:v>1024</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:8">
+      <x:c r="A26" s="1">
+        <x:v>45417.9381944444</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="n">
+        <x:v>18200415</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="n">
+        <x:v>1025</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:8">
+      <x:c r="A27" s="1">
+        <x:v>45417.8451388889</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="n">
+        <x:v>25117751</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="n">
+        <x:v>1026</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:8">
+      <x:c r="A28" s="1">
+        <x:v>45417.85</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="n">
+        <x:v>76751186</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="n">
+        <x:v>1027</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:8">
+      <x:c r="A29" s="1">
+        <x:v>45417.8638888889</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="n">
+        <x:v>29607507</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="n">
+        <x:v>1028</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:8">
+      <x:c r="A30" s="1">
+        <x:v>45417.8680555556</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="n">
+        <x:v>93311549</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="n">
+        <x:v>1029</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:8">
+      <x:c r="A31" s="1">
+        <x:v>45417.8909722222</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="n">
+        <x:v>23057655</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="n">
+        <x:v>1030</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:8">
+      <x:c r="A32" s="1">
+        <x:v>45417.8958333333</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="n">
+        <x:v>22486634</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="n">
+        <x:v>1031</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:8">
+      <x:c r="A33" s="1">
+        <x:v>45417.90625</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="n">
+        <x:v>90886403</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="n">
+        <x:v>1032</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:8">
+      <x:c r="A34" s="1">
+        <x:v>45417.9298611111</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="n">
+        <x:v>86138263</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="n">
+        <x:v>1033</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:8">
+      <x:c r="A35" s="1">
+        <x:v>45417.9347222222</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="n">
+        <x:v>15764979</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="n">
+        <x:v>1034</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:8">
+      <x:c r="A36" s="1">
+        <x:v>45417.9395833333</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="n">
+        <x:v>58719994</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="n">
+        <x:v>1035</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:8">
+      <x:c r="A37" s="1">
+        <x:v>45417.8381944444</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="n">
+        <x:v>85106913</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="n">
+        <x:v>1036</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:8">
+      <x:c r="A38" s="1">
+        <x:v>45417.8708333333</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="n">
+        <x:v>12501967</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="n">
+        <x:v>1037</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:8">
+      <x:c r="A39" s="1">
+        <x:v>45417.8888888889</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="n">
+        <x:v>52274103</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="n">
+        <x:v>1038</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:8">
+      <x:c r="A40" s="1">
+        <x:v>45417.8979166667</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="n">
+        <x:v>79155582</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="n">
+        <x:v>1039</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:8">
+      <x:c r="A41" s="1">
+        <x:v>45417.9006944444</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="n">
+        <x:v>51214237</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="n">
+        <x:v>1040</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:8">
+      <x:c r="A42" s="1">
+        <x:v>45417.9104166667</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="n">
+        <x:v>22193463</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="n">
+        <x:v>1041</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:8">
+      <x:c r="A43" s="1">
+        <x:v>45417.9138888889</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="n">
+        <x:v>78752400</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="n">
+        <x:v>1042</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:8">
+      <x:c r="A44" s="1">
+        <x:v>45417.9270833333</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="n">
+        <x:v>63113515</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="n">
+        <x:v>1043</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:8">
+      <x:c r="A45" s="1">
+        <x:v>45417.9340277778</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="n">
+        <x:v>19978185</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="n">
+        <x:v>1044</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:8">
+      <x:c r="A46" s="1">
+        <x:v>45417.9576388889</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="n">
+        <x:v>74640463</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="n">
+        <x:v>1045</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:8">
+      <x:c r="A47" s="1">
+        <x:v>45417.8611111111</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="n">
+        <x:v>86467940</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="n">
+        <x:v>1046</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:8">
+      <x:c r="A48" s="1">
+        <x:v>45417.86875</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="n">
+        <x:v>89442809</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="n">
+        <x:v>1047</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:8">
+      <x:c r="A49" s="1">
+        <x:v>45417.8805555556</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="n">
+        <x:v>17283267</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="n">
+        <x:v>1048</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:8">
+      <x:c r="A50" s="1">
+        <x:v>45417.8847222222</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="n">
+        <x:v>22872164</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="n">
+        <x:v>1049</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:8">
+      <x:c r="A51" s="1">
+        <x:v>45417.9020833333</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="n">
+        <x:v>31162803</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="n">
+        <x:v>1050</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
